--- a/RPL_V2/xlsx/stadium_pfl.xlsx
+++ b/RPL_V2/xlsx/stadium_pfl.xlsx
@@ -944,6 +944,9 @@
       </c>
     </row>
     <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -954,7 +957,7 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -991,6 +994,9 @@
       </c>
     </row>
     <row r="3" spans="1:17">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>69</v>
@@ -1038,6 +1044,9 @@
       </c>
     </row>
     <row r="4" spans="1:17">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1048,7 +1057,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>70</v>
@@ -1085,6 +1094,9 @@
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1107,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -1132,6 +1144,9 @@
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>72</v>
@@ -1179,6 +1194,9 @@
       </c>
     </row>
     <row r="7" spans="1:17">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1189,7 +1207,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
         <v>73</v>
@@ -1226,6 +1244,9 @@
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1257,7 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>74</v>
@@ -1273,6 +1294,9 @@
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1307,7 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
         <v>69</v>
@@ -1320,6 +1344,9 @@
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1357,7 @@
         <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
         <v>73</v>
@@ -1367,6 +1394,9 @@
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1377,7 +1407,7 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>75</v>
@@ -1414,6 +1444,9 @@
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1424,7 +1457,7 @@
         <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>73</v>
@@ -1461,6 +1494,9 @@
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1471,7 +1507,7 @@
         <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>76</v>
@@ -1508,6 +1544,9 @@
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1557,7 @@
         <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -1555,6 +1594,9 @@
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1565,7 +1607,7 @@
         <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>78</v>
@@ -1602,6 +1644,9 @@
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -1612,7 +1657,7 @@
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>79</v>
@@ -1649,6 +1694,9 @@
       </c>
     </row>
     <row r="17" spans="1:17">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -1659,7 +1707,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>80</v>
@@ -1696,6 +1744,9 @@
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18">
+        <v>3</v>
+      </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1706,7 +1757,7 @@
         <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
         <v>81</v>
@@ -1743,6 +1794,9 @@
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19">
+        <v>3</v>
+      </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1807,7 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
         <v>69</v>
@@ -1790,6 +1844,9 @@
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20">
+        <v>3</v>
+      </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -1800,7 +1857,7 @@
         <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>82</v>
@@ -1837,6 +1894,9 @@
       </c>
     </row>
     <row r="21" spans="1:17">
+      <c r="A21">
+        <v>3</v>
+      </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -1847,7 +1907,7 @@
         <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>83</v>
